--- a/data/pca/factorExposure/factorExposure_2016-11-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01727158984574848</v>
+        <v>0.01414629546336706</v>
       </c>
       <c r="C2">
-        <v>0.04465766995699001</v>
+        <v>-0.04177793774989776</v>
       </c>
       <c r="D2">
-        <v>0.01881762970332302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.0546493423450554</v>
+      </c>
+      <c r="E2">
+        <v>0.01740122926567448</v>
+      </c>
+      <c r="F2">
+        <v>-0.08937922283257871</v>
+      </c>
+      <c r="G2">
+        <v>0.03632106172128793</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05654978402118604</v>
+        <v>0.03477454264516136</v>
       </c>
       <c r="C3">
-        <v>0.1014167788152824</v>
+        <v>-0.08859008059182585</v>
       </c>
       <c r="D3">
-        <v>0.02833922778361138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.09331808308404571</v>
+      </c>
+      <c r="E3">
+        <v>0.03095217376961594</v>
+      </c>
+      <c r="F3">
+        <v>-0.09111575510198404</v>
+      </c>
+      <c r="G3">
+        <v>-0.06693331096233712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06180932269820555</v>
+        <v>0.05675376893311415</v>
       </c>
       <c r="C4">
-        <v>0.06500563428863675</v>
+        <v>-0.06093650585986159</v>
       </c>
       <c r="D4">
-        <v>0.0003163489419109645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05559717806451513</v>
+      </c>
+      <c r="E4">
+        <v>0.01143673205453226</v>
+      </c>
+      <c r="F4">
+        <v>-0.09520668697466859</v>
+      </c>
+      <c r="G4">
+        <v>-0.02462499644818567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02527677660772525</v>
+        <v>0.03496026097314785</v>
       </c>
       <c r="C6">
-        <v>0.05032176355689916</v>
+        <v>-0.03854589918531881</v>
       </c>
       <c r="D6">
-        <v>0.008068255000481726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.0638995788906382</v>
+      </c>
+      <c r="E6">
+        <v>0.01705938338140891</v>
+      </c>
+      <c r="F6">
+        <v>-0.08854553232607991</v>
+      </c>
+      <c r="G6">
+        <v>-0.005871652126573383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02245361244496983</v>
+        <v>0.02104078623106375</v>
       </c>
       <c r="C7">
-        <v>0.04534204320730342</v>
+        <v>-0.0373183849828598</v>
       </c>
       <c r="D7">
-        <v>-0.01583714038307421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.02926063611901139</v>
+      </c>
+      <c r="E7">
+        <v>-0.0005099773036322509</v>
+      </c>
+      <c r="F7">
+        <v>-0.117660430206295</v>
+      </c>
+      <c r="G7">
+        <v>0.009888358154514531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001835979679727723</v>
+        <v>0.006234677174666686</v>
       </c>
       <c r="C8">
-        <v>0.00999306103706416</v>
+        <v>-0.0197768199783693</v>
       </c>
       <c r="D8">
-        <v>0.01512763938969051</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03392550946461837</v>
+      </c>
+      <c r="E8">
+        <v>0.01070257997050429</v>
+      </c>
+      <c r="F8">
+        <v>-0.0693697993960101</v>
+      </c>
+      <c r="G8">
+        <v>-0.006111650008010601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.028550907374163</v>
+        <v>0.03601608422196131</v>
       </c>
       <c r="C9">
-        <v>0.04515610552492328</v>
+        <v>-0.04829294896899268</v>
       </c>
       <c r="D9">
-        <v>-0.006390012516762858</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03728379495752115</v>
+      </c>
+      <c r="E9">
+        <v>0.008686358281769705</v>
+      </c>
+      <c r="F9">
+        <v>-0.1000316791925319</v>
+      </c>
+      <c r="G9">
+        <v>-0.008711684336052773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08226234630944228</v>
+        <v>0.0964782746061601</v>
       </c>
       <c r="C10">
-        <v>-0.1984004315720829</v>
+        <v>0.1938961155816644</v>
       </c>
       <c r="D10">
-        <v>0.02337418323103003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0128814721809626</v>
+      </c>
+      <c r="E10">
+        <v>0.03147605845428057</v>
+      </c>
+      <c r="F10">
+        <v>-0.05127197673004899</v>
+      </c>
+      <c r="G10">
+        <v>-0.0008303023589688295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04246392911413698</v>
+        <v>0.03747248079423508</v>
       </c>
       <c r="C11">
-        <v>0.05565194828745144</v>
+        <v>-0.05367571078830821</v>
       </c>
       <c r="D11">
-        <v>-0.01348420249209697</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.02374545711081808</v>
+      </c>
+      <c r="E11">
+        <v>-0.01272784691128287</v>
+      </c>
+      <c r="F11">
+        <v>-0.06923774995325874</v>
+      </c>
+      <c r="G11">
+        <v>-0.005585955324649515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.0363080962009255</v>
+        <v>0.03721236451640389</v>
       </c>
       <c r="C12">
-        <v>0.04557662657447788</v>
+        <v>-0.04777140387015007</v>
       </c>
       <c r="D12">
-        <v>-0.0114960476208583</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.01831583810109025</v>
+      </c>
+      <c r="E12">
+        <v>-0.003820817751750806</v>
+      </c>
+      <c r="F12">
+        <v>-0.07088589452061339</v>
+      </c>
+      <c r="G12">
+        <v>-0.001406969188712347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.009772615698886203</v>
+        <v>0.01333545679023979</v>
       </c>
       <c r="C13">
-        <v>0.04168918181708379</v>
+        <v>-0.04049399173101641</v>
       </c>
       <c r="D13">
-        <v>0.01421148008165038</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0613172002185208</v>
+      </c>
+      <c r="E13">
+        <v>0.02754696131278177</v>
+      </c>
+      <c r="F13">
+        <v>-0.1325541052023457</v>
+      </c>
+      <c r="G13">
+        <v>-0.00902993556018895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006047173357627844</v>
+        <v>0.008515045502660395</v>
       </c>
       <c r="C14">
-        <v>0.03046620538264162</v>
+        <v>-0.02832687253121342</v>
       </c>
       <c r="D14">
-        <v>-0.01447882850422393</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02217411805980142</v>
+      </c>
+      <c r="E14">
+        <v>0.007211381260093407</v>
+      </c>
+      <c r="F14">
+        <v>-0.1065799272905514</v>
+      </c>
+      <c r="G14">
+        <v>0.0157968775995426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001217081669879636</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-8.972753105569682e-05</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.001486670865660242</v>
+      </c>
+      <c r="E15">
+        <v>-0.0008553122396812008</v>
+      </c>
+      <c r="F15">
+        <v>-0.0006043303489161533</v>
+      </c>
+      <c r="G15">
+        <v>0.0007291014307212645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03632005258166977</v>
+        <v>0.03466511475778101</v>
       </c>
       <c r="C16">
-        <v>0.04116145394517452</v>
+        <v>-0.0458663767617303</v>
       </c>
       <c r="D16">
-        <v>-0.004095406026799882</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0223604717141836</v>
+      </c>
+      <c r="E16">
+        <v>0.002876064333535647</v>
+      </c>
+      <c r="F16">
+        <v>-0.07466907445844621</v>
+      </c>
+      <c r="G16">
+        <v>0.009077950870938446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03408245231828289</v>
+        <v>0.02053291536378602</v>
       </c>
       <c r="C19">
-        <v>0.05825807719515747</v>
+        <v>-0.05034794577304598</v>
       </c>
       <c r="D19">
-        <v>0.03448607665812829</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1000242199934878</v>
+      </c>
+      <c r="E19">
+        <v>0.0313809407697583</v>
+      </c>
+      <c r="F19">
+        <v>-0.1402857356412948</v>
+      </c>
+      <c r="G19">
+        <v>0.02532613524527053</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01341930360083276</v>
+        <v>0.01589600251083399</v>
       </c>
       <c r="C20">
-        <v>0.04490210531290442</v>
+        <v>-0.03917388083052292</v>
       </c>
       <c r="D20">
-        <v>0.01927594131477918</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.04487179071949536</v>
+      </c>
+      <c r="E20">
+        <v>0.03409174016079499</v>
+      </c>
+      <c r="F20">
+        <v>-0.1023379584560648</v>
+      </c>
+      <c r="G20">
+        <v>0.008491260857666084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.007604339347585408</v>
+        <v>0.009175378872110276</v>
       </c>
       <c r="C21">
-        <v>0.04011856114250071</v>
+        <v>-0.03869902753955225</v>
       </c>
       <c r="D21">
-        <v>0.02264250603242246</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06243889611662526</v>
+      </c>
+      <c r="E21">
+        <v>0.02811141438879594</v>
+      </c>
+      <c r="F21">
+        <v>-0.1499373919769676</v>
+      </c>
+      <c r="G21">
+        <v>0.005433348331211808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.00438124002719468</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01496176964114281</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.02451831045093568</v>
+      </c>
+      <c r="E22">
+        <v>0.00173806580270003</v>
+      </c>
+      <c r="F22">
+        <v>-0.02024724991243239</v>
+      </c>
+      <c r="G22">
+        <v>-0.03376754119917124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.004414020064144926</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01488990127164083</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.02427665552548196</v>
+      </c>
+      <c r="E23">
+        <v>0.002043052074663806</v>
+      </c>
+      <c r="F23">
+        <v>-0.01995455468225963</v>
+      </c>
+      <c r="G23">
+        <v>-0.03384188943222543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02924080978849357</v>
+        <v>0.03106178034270905</v>
       </c>
       <c r="C24">
-        <v>0.04747843605806681</v>
+        <v>-0.05118399829401968</v>
       </c>
       <c r="D24">
-        <v>-0.01366829869890343</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.02069397582289864</v>
+      </c>
+      <c r="E24">
+        <v>-0.005265221862682257</v>
+      </c>
+      <c r="F24">
+        <v>-0.07707201399141246</v>
+      </c>
+      <c r="G24">
+        <v>0.002618408639273718</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04733702677496163</v>
+        <v>0.04324053373890473</v>
       </c>
       <c r="C25">
-        <v>0.05469568222849493</v>
+        <v>-0.05717756481990977</v>
       </c>
       <c r="D25">
-        <v>-0.0230149712505619</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01570351558582836</v>
+      </c>
+      <c r="E25">
+        <v>-0.005631997207940467</v>
+      </c>
+      <c r="F25">
+        <v>-0.08568583412602154</v>
+      </c>
+      <c r="G25">
+        <v>-0.01246238932634984</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.009361753883028854</v>
+        <v>0.01545303572902267</v>
       </c>
       <c r="C26">
-        <v>0.01218033366231897</v>
+        <v>-0.01348745545512526</v>
       </c>
       <c r="D26">
-        <v>-0.001156232140565177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01684057000071375</v>
+      </c>
+      <c r="E26">
+        <v>0.009180269837385629</v>
+      </c>
+      <c r="F26">
+        <v>-0.08277129874248522</v>
+      </c>
+      <c r="G26">
+        <v>0.02150608077013938</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09537492108048105</v>
+        <v>0.1298641625314091</v>
       </c>
       <c r="C28">
-        <v>-0.2283238275153344</v>
+        <v>0.2455347673673668</v>
       </c>
       <c r="D28">
-        <v>0.01465114264510663</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.004912046143111299</v>
+      </c>
+      <c r="E28">
+        <v>0.03599819943831422</v>
+      </c>
+      <c r="F28">
+        <v>-0.06145488612321712</v>
+      </c>
+      <c r="G28">
+        <v>-0.007300923686970225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01077649724527531</v>
+        <v>0.00929176635995037</v>
       </c>
       <c r="C29">
-        <v>0.02184338684301288</v>
+        <v>-0.02357470883353734</v>
       </c>
       <c r="D29">
-        <v>-0.01195859000907966</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01279988105223857</v>
+      </c>
+      <c r="E29">
+        <v>0.01202497666414413</v>
+      </c>
+      <c r="F29">
+        <v>-0.1013439467053975</v>
+      </c>
+      <c r="G29">
+        <v>0.002095060571797382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04069792950382486</v>
+        <v>0.03881647911894022</v>
       </c>
       <c r="C30">
-        <v>0.07220054162012544</v>
+        <v>-0.06549238746307973</v>
       </c>
       <c r="D30">
-        <v>-0.00369827271313739</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.09037162797884825</v>
+      </c>
+      <c r="E30">
+        <v>-0.01433099125486303</v>
+      </c>
+      <c r="F30">
+        <v>-0.1104836339188528</v>
+      </c>
+      <c r="G30">
+        <v>0.02953954991268698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04220485829524628</v>
+        <v>0.05724657253551926</v>
       </c>
       <c r="C31">
-        <v>0.03073055550251722</v>
+        <v>-0.04383217556322337</v>
       </c>
       <c r="D31">
-        <v>-0.01359564779836076</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.00294642569991299</v>
+      </c>
+      <c r="E31">
+        <v>0.03431306266812974</v>
+      </c>
+      <c r="F31">
+        <v>-0.09343363725472952</v>
+      </c>
+      <c r="G31">
+        <v>-0.02711821361815767</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007160630394599476</v>
+        <v>0.004639930200436766</v>
       </c>
       <c r="C32">
-        <v>0.03464985349565213</v>
+        <v>-0.02666216552619543</v>
       </c>
       <c r="D32">
-        <v>0.00910411009381067</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04335145278902755</v>
+      </c>
+      <c r="E32">
+        <v>-0.004312937225926993</v>
+      </c>
+      <c r="F32">
+        <v>-0.07891043201402652</v>
+      </c>
+      <c r="G32">
+        <v>0.01015793662706917</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03033978244703572</v>
+        <v>0.02693639437635297</v>
       </c>
       <c r="C33">
-        <v>0.05626725838097425</v>
+        <v>-0.04847149482920325</v>
       </c>
       <c r="D33">
-        <v>0.00191999508682512</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.06992756640216216</v>
+      </c>
+      <c r="E33">
+        <v>0.007683961463320283</v>
+      </c>
+      <c r="F33">
+        <v>-0.1529740807946131</v>
+      </c>
+      <c r="G33">
+        <v>-0.005990865071634341</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05349372495403294</v>
+        <v>0.04333439613359537</v>
       </c>
       <c r="C34">
-        <v>0.05381522276293659</v>
+        <v>-0.06322744104951056</v>
       </c>
       <c r="D34">
-        <v>-0.01875347171058576</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.02229144631585928</v>
+      </c>
+      <c r="E34">
+        <v>-0.01878342911356369</v>
+      </c>
+      <c r="F34">
+        <v>-0.07896596466305858</v>
+      </c>
+      <c r="G34">
+        <v>7.260009053412625e-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01005287396935446</v>
+        <v>0.01582413287548792</v>
       </c>
       <c r="C36">
-        <v>0.008122024326172544</v>
+        <v>-0.008566768263598389</v>
       </c>
       <c r="D36">
-        <v>-0.007290315899799846</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02000760464656742</v>
+      </c>
+      <c r="E36">
+        <v>0.01369517070246043</v>
+      </c>
+      <c r="F36">
+        <v>-0.09612741154433936</v>
+      </c>
+      <c r="G36">
+        <v>-0.0005901062434695881</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03775562998411498</v>
+        <v>0.03049182615150674</v>
       </c>
       <c r="C38">
-        <v>0.02123794297019439</v>
+        <v>-0.02253418719275233</v>
       </c>
       <c r="D38">
-        <v>-0.009246353567554664</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02011804328849468</v>
+      </c>
+      <c r="E38">
+        <v>0.01559355367739202</v>
+      </c>
+      <c r="F38">
+        <v>-0.08706108404125143</v>
+      </c>
+      <c r="G38">
+        <v>-0.002303209101550228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.03813899049755103</v>
+        <v>0.03743912560241021</v>
       </c>
       <c r="C39">
-        <v>0.08365494751838429</v>
+        <v>-0.07492532409434521</v>
       </c>
       <c r="D39">
-        <v>0.002433551514008767</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.04575424522435161</v>
+      </c>
+      <c r="E39">
+        <v>-0.01297408958481464</v>
+      </c>
+      <c r="F39">
+        <v>-0.08576419504404593</v>
+      </c>
+      <c r="G39">
+        <v>0.03381845727141678</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01711255345054676</v>
+        <v>0.01769386851619264</v>
       </c>
       <c r="C40">
-        <v>0.02732957076216794</v>
+        <v>-0.03819997866128846</v>
       </c>
       <c r="D40">
-        <v>0.01625906263804978</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03336881538097693</v>
+      </c>
+      <c r="E40">
+        <v>0.03255620108075282</v>
+      </c>
+      <c r="F40">
+        <v>-0.1177820664833513</v>
+      </c>
+      <c r="G40">
+        <v>-0.04095678633470567</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01183779115319157</v>
+        <v>0.01899768716837448</v>
       </c>
       <c r="C41">
-        <v>-6.75936059593674e-05</v>
+        <v>0.0002155011310337942</v>
       </c>
       <c r="D41">
-        <v>-0.00792592529059869</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01617753118818987</v>
+      </c>
+      <c r="E41">
+        <v>0.01729564367129867</v>
+      </c>
+      <c r="F41">
+        <v>-0.08716103719206197</v>
+      </c>
+      <c r="G41">
+        <v>0.006400901503612564</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.002977751371059262</v>
+        <v>0.002288714499573418</v>
       </c>
       <c r="C42">
-        <v>0.05114002925286997</v>
+        <v>-0.02754537658233558</v>
       </c>
       <c r="D42">
-        <v>0.02256202035668241</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.002166685424946044</v>
+      </c>
+      <c r="E42">
+        <v>0.02190758453364522</v>
+      </c>
+      <c r="F42">
+        <v>0.03493261407236587</v>
+      </c>
+      <c r="G42">
+        <v>0.01177599619925542</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03363208184146317</v>
+        <v>0.03307652721377309</v>
       </c>
       <c r="C43">
-        <v>0.01255483185948888</v>
+        <v>-0.0141409909203359</v>
       </c>
       <c r="D43">
-        <v>-0.009979547166557089</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03413670377232505</v>
+      </c>
+      <c r="E43">
+        <v>0.01430390791863613</v>
+      </c>
+      <c r="F43">
+        <v>-0.1107494515006242</v>
+      </c>
+      <c r="G43">
+        <v>-0.01610208209981594</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02179276169590144</v>
+        <v>0.01437726893575026</v>
       </c>
       <c r="C44">
-        <v>0.05501719417497063</v>
+        <v>-0.05214571355050857</v>
       </c>
       <c r="D44">
-        <v>0.001687725001225568</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.03820336677424083</v>
+      </c>
+      <c r="E44">
+        <v>0.02404452492647232</v>
+      </c>
+      <c r="F44">
+        <v>-0.1101206741491704</v>
+      </c>
+      <c r="G44">
+        <v>0.009059591460498581</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.0001728165437795828</v>
+        <v>0.01051879200718253</v>
       </c>
       <c r="C46">
-        <v>0.01445861379166198</v>
+        <v>-0.01864836696768061</v>
       </c>
       <c r="D46">
-        <v>-0.02059174881374466</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.006066853310829869</v>
+      </c>
+      <c r="E46">
+        <v>0.01711065658452426</v>
+      </c>
+      <c r="F46">
+        <v>-0.1101280639823558</v>
+      </c>
+      <c r="G46">
+        <v>0.008950321776086595</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07823511730388623</v>
+        <v>0.08722153799411771</v>
       </c>
       <c r="C47">
-        <v>0.06817355708158322</v>
+        <v>-0.07490252740698188</v>
       </c>
       <c r="D47">
-        <v>-0.008648077463264518</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01044892458137902</v>
+      </c>
+      <c r="E47">
+        <v>0.04333798053042508</v>
+      </c>
+      <c r="F47">
+        <v>-0.09301221037543372</v>
+      </c>
+      <c r="G47">
+        <v>-0.03096061726949863</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01770488156683752</v>
+        <v>0.01730326908306253</v>
       </c>
       <c r="C48">
-        <v>0.0109797300311918</v>
+        <v>-0.01565933238587192</v>
       </c>
       <c r="D48">
-        <v>-0.01082510180783497</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01402494509172708</v>
+      </c>
+      <c r="E48">
+        <v>0.02307468108649906</v>
+      </c>
+      <c r="F48">
+        <v>-0.1073877245654993</v>
+      </c>
+      <c r="G48">
+        <v>0.004528505745455217</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08664333219778264</v>
+        <v>0.07770564999792644</v>
       </c>
       <c r="C50">
-        <v>0.06645598876939801</v>
+        <v>-0.07057998811361677</v>
       </c>
       <c r="D50">
-        <v>-0.02057821548267129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.005790610622595606</v>
+      </c>
+      <c r="E50">
+        <v>0.03965098393756453</v>
+      </c>
+      <c r="F50">
+        <v>-0.09559436652960275</v>
+      </c>
+      <c r="G50">
+        <v>-0.05828805995221067</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01777447802142684</v>
+        <v>0.01210463531213799</v>
       </c>
       <c r="C51">
-        <v>0.03980438207277514</v>
+        <v>-0.03390260555590152</v>
       </c>
       <c r="D51">
-        <v>-0.01036749474257231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.04046688170092454</v>
+      </c>
+      <c r="E51">
+        <v>-0.004861817683266868</v>
+      </c>
+      <c r="F51">
+        <v>-0.1001869226715851</v>
+      </c>
+      <c r="G51">
+        <v>0.01939571355183686</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.09785561664940354</v>
+        <v>0.08931909953485062</v>
       </c>
       <c r="C53">
-        <v>0.06885622984475533</v>
+        <v>-0.08562648390303712</v>
       </c>
       <c r="D53">
-        <v>-0.03027021115685376</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03050023571608397</v>
+      </c>
+      <c r="E53">
+        <v>0.04958428966939934</v>
+      </c>
+      <c r="F53">
+        <v>-0.0990413715966815</v>
+      </c>
+      <c r="G53">
+        <v>-0.04054503862228254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0301752654148119</v>
+        <v>0.03137334012722356</v>
       </c>
       <c r="C54">
-        <v>0.005628545066329154</v>
+        <v>-0.02168295386285667</v>
       </c>
       <c r="D54">
-        <v>-0.002276873314656973</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02466366280096354</v>
+      </c>
+      <c r="E54">
+        <v>0.0123555088736984</v>
+      </c>
+      <c r="F54">
+        <v>-0.107074470978361</v>
+      </c>
+      <c r="G54">
+        <v>0.002570230536718497</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07449470228835227</v>
+        <v>0.08148540753111076</v>
       </c>
       <c r="C55">
-        <v>0.06394330225804867</v>
+        <v>-0.06914399163522597</v>
       </c>
       <c r="D55">
-        <v>-0.0268065424106215</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03619752796097024</v>
+      </c>
+      <c r="E55">
+        <v>0.04615783969538417</v>
+      </c>
+      <c r="F55">
+        <v>-0.06574375307547486</v>
+      </c>
+      <c r="G55">
+        <v>-0.03359571427631177</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1512221573644159</v>
+        <v>0.1438284329362271</v>
       </c>
       <c r="C56">
-        <v>0.08879923429940388</v>
+        <v>-0.1035231461484702</v>
       </c>
       <c r="D56">
-        <v>-0.02268612232477038</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03964625976707885</v>
+      </c>
+      <c r="E56">
+        <v>0.05382254447858125</v>
+      </c>
+      <c r="F56">
+        <v>-0.06044157302892036</v>
+      </c>
+      <c r="G56">
+        <v>-0.04262550674177536</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.004830490587299624</v>
+        <v>0.001970653260478805</v>
       </c>
       <c r="C57">
-        <v>0.00849432819914071</v>
+        <v>-0.004401584680819909</v>
       </c>
       <c r="D57">
-        <v>0.03123217227607123</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02774703012036877</v>
+      </c>
+      <c r="E57">
+        <v>0.002095655503384326</v>
+      </c>
+      <c r="F57">
+        <v>-0.01057101188784594</v>
+      </c>
+      <c r="G57">
+        <v>0.003144512689571658</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05915007899320595</v>
+        <v>0.03829454014809684</v>
       </c>
       <c r="C58">
-        <v>0.08131256614481792</v>
+        <v>-0.04053245145867306</v>
       </c>
       <c r="D58">
-        <v>0.9726557803041109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.6831574852059688</v>
+      </c>
+      <c r="E58">
+        <v>0.6208500767497267</v>
+      </c>
+      <c r="F58">
+        <v>0.3149175023624943</v>
+      </c>
+      <c r="G58">
+        <v>-0.02786246526523268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1427591046867892</v>
+        <v>0.1507259951977411</v>
       </c>
       <c r="C59">
-        <v>-0.2213058379761673</v>
+        <v>0.2015535674557079</v>
       </c>
       <c r="D59">
-        <v>0.01272283438817713</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.02177780613644126</v>
+      </c>
+      <c r="E59">
+        <v>0.01331468255379318</v>
+      </c>
+      <c r="F59">
+        <v>-0.03687234732804454</v>
+      </c>
+      <c r="G59">
+        <v>0.02341944541867211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3134649344431503</v>
+        <v>0.2848860113720594</v>
       </c>
       <c r="C60">
-        <v>0.08495961502448196</v>
+        <v>-0.1002095476237381</v>
       </c>
       <c r="D60">
-        <v>-0.001745294711453271</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1427640579717852</v>
+      </c>
+      <c r="E60">
+        <v>-0.2943485803147127</v>
+      </c>
+      <c r="F60">
+        <v>0.1429377699983003</v>
+      </c>
+      <c r="G60">
+        <v>-0.06150373606140679</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03626605021890469</v>
+        <v>0.0403884329458092</v>
       </c>
       <c r="C61">
-        <v>0.06202875757936528</v>
+        <v>-0.06397765026860655</v>
       </c>
       <c r="D61">
-        <v>0.0007775721639218387</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.03728260402557312</v>
+      </c>
+      <c r="E61">
+        <v>-0.002830971085047301</v>
+      </c>
+      <c r="F61">
+        <v>-0.08692750739449251</v>
+      </c>
+      <c r="G61">
+        <v>-0.001221935463297167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01697389376815777</v>
+        <v>0.01661047289080814</v>
       </c>
       <c r="C63">
-        <v>0.02712776082670962</v>
+        <v>-0.0286252620709002</v>
       </c>
       <c r="D63">
-        <v>-0.01954168509250989</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01398440345680206</v>
+      </c>
+      <c r="E63">
+        <v>0.0140487712894518</v>
+      </c>
+      <c r="F63">
+        <v>-0.0913284551253947</v>
+      </c>
+      <c r="G63">
+        <v>-0.01957886398427962</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04813316001797183</v>
+        <v>0.05238911274424165</v>
       </c>
       <c r="C64">
-        <v>0.02918674873244607</v>
+        <v>-0.04653249686008166</v>
       </c>
       <c r="D64">
-        <v>-0.0155045858866896</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.009602095519364025</v>
+      </c>
+      <c r="E64">
+        <v>-0.002914014336422582</v>
+      </c>
+      <c r="F64">
+        <v>-0.09182426132956995</v>
+      </c>
+      <c r="G64">
+        <v>0.01628496093402465</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08489293050751676</v>
+        <v>0.06851331725564859</v>
       </c>
       <c r="C65">
-        <v>0.06089931506765506</v>
+        <v>-0.04393757036741584</v>
       </c>
       <c r="D65">
-        <v>0.008515116461181043</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.07247611541882119</v>
+      </c>
+      <c r="E65">
+        <v>-0.006469833081598106</v>
+      </c>
+      <c r="F65">
+        <v>-0.03789956792233442</v>
+      </c>
+      <c r="G65">
+        <v>0.007024822396504609</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06179216707672597</v>
+        <v>0.05107702148213415</v>
       </c>
       <c r="C66">
-        <v>0.1191113629653577</v>
+        <v>-0.09992191226497861</v>
       </c>
       <c r="D66">
-        <v>0.005761512095580134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.06869522589649267</v>
+      </c>
+      <c r="E66">
+        <v>-0.01586453649756695</v>
+      </c>
+      <c r="F66">
+        <v>-0.09108308381513031</v>
+      </c>
+      <c r="G66">
+        <v>0.01466954526898712</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06443967225284854</v>
+        <v>0.05294243989119714</v>
       </c>
       <c r="C67">
-        <v>0.02517270651336211</v>
+        <v>-0.02830747286300938</v>
       </c>
       <c r="D67">
-        <v>-0.01546480905928029</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.005955010936105286</v>
+      </c>
+      <c r="E67">
+        <v>0.008950770372616077</v>
+      </c>
+      <c r="F67">
+        <v>-0.07169670164335773</v>
+      </c>
+      <c r="G67">
+        <v>-0.007764851652789138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1176637940325296</v>
+        <v>0.1522096719571261</v>
       </c>
       <c r="C68">
-        <v>-0.2879977401064114</v>
+        <v>0.2665760148238588</v>
       </c>
       <c r="D68">
-        <v>0.02798187389312547</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.006687343945282718</v>
+      </c>
+      <c r="E68">
+        <v>0.04138096688865243</v>
+      </c>
+      <c r="F68">
+        <v>-0.02264836372137295</v>
+      </c>
+      <c r="G68">
+        <v>0.002892146442224314</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08544954332929375</v>
+        <v>0.08601514544961252</v>
       </c>
       <c r="C69">
-        <v>0.06496967888996065</v>
+        <v>-0.08038366720758904</v>
       </c>
       <c r="D69">
-        <v>-0.03313235774998263</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01465312386522649</v>
+      </c>
+      <c r="E69">
+        <v>0.01638371931151145</v>
+      </c>
+      <c r="F69">
+        <v>-0.09886592450343726</v>
+      </c>
+      <c r="G69">
+        <v>-0.003929178649505895</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1216938435274965</v>
+        <v>0.1415077196462342</v>
       </c>
       <c r="C71">
-        <v>-0.2403573149787347</v>
+        <v>0.2365879963420757</v>
       </c>
       <c r="D71">
-        <v>0.02893288204759156</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02319527603668579</v>
+      </c>
+      <c r="E71">
+        <v>0.04178910456735373</v>
+      </c>
+      <c r="F71">
+        <v>-0.06720056270868868</v>
+      </c>
+      <c r="G71">
+        <v>-0.01635798325941543</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.07727054507922361</v>
+        <v>0.08784558468185914</v>
       </c>
       <c r="C72">
-        <v>0.05731985826750325</v>
+        <v>-0.05774129449436854</v>
       </c>
       <c r="D72">
-        <v>-0.0478431539179857</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.005951060557865271</v>
+      </c>
+      <c r="E72">
+        <v>-0.02242195573761513</v>
+      </c>
+      <c r="F72">
+        <v>-0.07900283751733755</v>
+      </c>
+      <c r="G72">
+        <v>-0.009315546652152262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4438603466574133</v>
+        <v>0.358917022176672</v>
       </c>
       <c r="C73">
-        <v>0.08682651214609881</v>
+        <v>-0.08155817600601163</v>
       </c>
       <c r="D73">
-        <v>0.01385146091510031</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.3234874990699452</v>
+      </c>
+      <c r="E73">
+        <v>-0.5292049036593781</v>
+      </c>
+      <c r="F73">
+        <v>0.3154832849283561</v>
+      </c>
+      <c r="G73">
+        <v>-0.160430413837375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1172771718325371</v>
+        <v>0.1099165502016648</v>
       </c>
       <c r="C74">
-        <v>0.1141835707527685</v>
+        <v>-0.1057624693448393</v>
       </c>
       <c r="D74">
-        <v>-0.02161658733632877</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01617376259885782</v>
+      </c>
+      <c r="E74">
+        <v>0.06314168949364889</v>
+      </c>
+      <c r="F74">
+        <v>-0.07708346883174141</v>
+      </c>
+      <c r="G74">
+        <v>-0.05539913469510442</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2628755432006213</v>
+        <v>0.2551946407043865</v>
       </c>
       <c r="C75">
-        <v>0.120100258172529</v>
+        <v>-0.1367098341901723</v>
       </c>
       <c r="D75">
-        <v>-0.03690275145923129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1041126611733311</v>
+      </c>
+      <c r="E75">
+        <v>0.1226816600904211</v>
+      </c>
+      <c r="F75">
+        <v>-0.02386907373062004</v>
+      </c>
+      <c r="G75">
+        <v>-0.06352900356286656</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1172128772231847</v>
+        <v>0.1271959611276382</v>
       </c>
       <c r="C76">
-        <v>0.1010033986303084</v>
+        <v>-0.1027927097010979</v>
       </c>
       <c r="D76">
-        <v>-0.03182007513822355</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04504923758112894</v>
+      </c>
+      <c r="E76">
+        <v>0.08271661884561188</v>
+      </c>
+      <c r="F76">
+        <v>-0.07861221662703796</v>
+      </c>
+      <c r="G76">
+        <v>-0.04473492680855853</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07039714051529185</v>
+        <v>0.066854337631833</v>
       </c>
       <c r="C77">
-        <v>0.05669748963692535</v>
+        <v>-0.06312675215783156</v>
       </c>
       <c r="D77">
-        <v>0.02911789879988706</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05637753964909943</v>
+      </c>
+      <c r="E77">
+        <v>0.03923624710929495</v>
+      </c>
+      <c r="F77">
+        <v>-0.1009222278488809</v>
+      </c>
+      <c r="G77">
+        <v>0.1440867832913446</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04350232608386756</v>
+        <v>0.04291600516815624</v>
       </c>
       <c r="C78">
-        <v>0.0478131497393773</v>
+        <v>-0.05538188662004834</v>
       </c>
       <c r="D78">
-        <v>0.003297406935887591</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.05675118660035156</v>
+      </c>
+      <c r="E78">
+        <v>-0.01867814225083964</v>
+      </c>
+      <c r="F78">
+        <v>-0.09825794014830933</v>
+      </c>
+      <c r="G78">
+        <v>0.01101313859693981</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.0004255562845334335</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.02120358245411292</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01230419484450186</v>
+      </c>
+      <c r="E79">
+        <v>0.02580501012242793</v>
+      </c>
+      <c r="F79">
+        <v>-0.03446353737569882</v>
+      </c>
+      <c r="G79">
+        <v>-0.03520347439712527</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04995919116507239</v>
+        <v>0.03926934899097282</v>
       </c>
       <c r="C80">
-        <v>0.05671239351383237</v>
+        <v>-0.0476352552893855</v>
       </c>
       <c r="D80">
-        <v>0.01590220217953169</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0448306955006119</v>
+      </c>
+      <c r="E80">
+        <v>-0.0001555308136093331</v>
+      </c>
+      <c r="F80">
+        <v>-0.03564952543360217</v>
+      </c>
+      <c r="G80">
+        <v>0.04873099830938314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.139196951987903</v>
+        <v>0.140635531519996</v>
       </c>
       <c r="C81">
-        <v>0.07884911772137146</v>
+        <v>-0.09326126364949869</v>
       </c>
       <c r="D81">
-        <v>-0.02879216348253212</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07610124235079073</v>
+      </c>
+      <c r="E81">
+        <v>0.1008280990805999</v>
+      </c>
+      <c r="F81">
+        <v>-0.0386588958519907</v>
+      </c>
+      <c r="G81">
+        <v>-0.04953585981710888</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.06309230569950751</v>
+        <v>0.180976943408242</v>
       </c>
       <c r="C82">
-        <v>0.04103242538686912</v>
+        <v>-0.1290923388878516</v>
       </c>
       <c r="D82">
-        <v>-0.02325239189729582</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.207309846078783</v>
+      </c>
+      <c r="E82">
+        <v>0.05515926960709067</v>
+      </c>
+      <c r="F82">
+        <v>-0.04056994637018764</v>
+      </c>
+      <c r="G82">
+        <v>-0.006944369317615182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02913270045725829</v>
+        <v>0.02910646576332822</v>
       </c>
       <c r="C83">
-        <v>0.02014617900192058</v>
+        <v>-0.03241909244627265</v>
       </c>
       <c r="D83">
-        <v>0.0145520411577976</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03224879970741847</v>
+      </c>
+      <c r="E83">
+        <v>-0.006627911772038027</v>
+      </c>
+      <c r="F83">
+        <v>-0.05519819442608856</v>
+      </c>
+      <c r="G83">
+        <v>0.03112716202549661</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2407940380460258</v>
+        <v>0.2095393037124157</v>
       </c>
       <c r="C85">
-        <v>0.1186972461306019</v>
+        <v>-0.1242714926638507</v>
       </c>
       <c r="D85">
-        <v>-0.1051885135344789</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1060981000192214</v>
+      </c>
+      <c r="E85">
+        <v>0.04557223217295431</v>
+      </c>
+      <c r="F85">
+        <v>0.01116525396130075</v>
+      </c>
+      <c r="G85">
+        <v>-0.1091520436454005</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01264785775067102</v>
+        <v>0.01473449242954437</v>
       </c>
       <c r="C86">
-        <v>0.02580573027134962</v>
+        <v>-0.0268185410918812</v>
       </c>
       <c r="D86">
-        <v>0.003572370384454223</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07312619215583675</v>
+      </c>
+      <c r="E86">
+        <v>-0.001649997148972852</v>
+      </c>
+      <c r="F86">
+        <v>-0.1614063467557211</v>
+      </c>
+      <c r="G86">
+        <v>0.03246298167015495</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01422141010721514</v>
+        <v>0.02057633200328508</v>
       </c>
       <c r="C87">
-        <v>0.02468353102071968</v>
+        <v>-0.01625872720159037</v>
       </c>
       <c r="D87">
-        <v>0.07328549705106382</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09660433411466739</v>
+      </c>
+      <c r="E87">
+        <v>0.04339331598977474</v>
+      </c>
+      <c r="F87">
+        <v>-0.1094080299038169</v>
+      </c>
+      <c r="G87">
+        <v>0.05067297699609823</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.09979141677570916</v>
+        <v>0.09001529815401937</v>
       </c>
       <c r="C88">
-        <v>0.06501697529045136</v>
+        <v>-0.06225262613942623</v>
       </c>
       <c r="D88">
-        <v>-0.01303069902650038</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.007741159542444888</v>
+      </c>
+      <c r="E88">
+        <v>0.01418903807596608</v>
+      </c>
+      <c r="F88">
+        <v>-0.09388955946792139</v>
+      </c>
+      <c r="G88">
+        <v>0.04520156707075498</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1951308225818904</v>
+        <v>0.2150371151432642</v>
       </c>
       <c r="C89">
-        <v>-0.3732067279564738</v>
+        <v>0.3704159191403918</v>
       </c>
       <c r="D89">
-        <v>-0.01573199112290786</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01637171954130693</v>
+      </c>
+      <c r="E89">
+        <v>0.00935348912133979</v>
+      </c>
+      <c r="F89">
+        <v>-0.07634653774296146</v>
+      </c>
+      <c r="G89">
+        <v>0.09123509617017987</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1774581604325357</v>
+        <v>0.2020714058524268</v>
       </c>
       <c r="C90">
-        <v>-0.3487441891063347</v>
+        <v>0.3211644798824023</v>
       </c>
       <c r="D90">
-        <v>0.02400544298347375</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01120741693109194</v>
+      </c>
+      <c r="E90">
+        <v>0.05253577657665355</v>
+      </c>
+      <c r="F90">
+        <v>-0.05050817737138491</v>
+      </c>
+      <c r="G90">
+        <v>0.02817365587671058</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2032956938987986</v>
+        <v>0.1912580689916321</v>
       </c>
       <c r="C91">
-        <v>0.1076232251595212</v>
+        <v>-0.1339721337541928</v>
       </c>
       <c r="D91">
-        <v>-0.04048024112219464</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08724693697646239</v>
+      </c>
+      <c r="E91">
+        <v>0.1000553525916422</v>
+      </c>
+      <c r="F91">
+        <v>-0.05468861873249477</v>
+      </c>
+      <c r="G91">
+        <v>-0.04699860600430829</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1758430319653843</v>
+        <v>0.1846351024235394</v>
       </c>
       <c r="C92">
-        <v>-0.2774641338121084</v>
+        <v>0.2749261472247344</v>
       </c>
       <c r="D92">
-        <v>0.01788503543479047</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.005561153791413416</v>
+      </c>
+      <c r="E92">
+        <v>0.0765033073381276</v>
+      </c>
+      <c r="F92">
+        <v>-0.07543300002657531</v>
+      </c>
+      <c r="G92">
+        <v>0.0275080653939105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1893727764362954</v>
+        <v>0.2231579754245762</v>
       </c>
       <c r="C93">
-        <v>-0.3278732930768015</v>
+        <v>0.3165730560317485</v>
       </c>
       <c r="D93">
-        <v>0.01892765361098494</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.004864296228603944</v>
+      </c>
+      <c r="E93">
+        <v>0.03632574164954579</v>
+      </c>
+      <c r="F93">
+        <v>-0.05779518095445393</v>
+      </c>
+      <c r="G93">
+        <v>-0.01361307363181067</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2766072727695369</v>
+        <v>0.3374156496742884</v>
       </c>
       <c r="C94">
-        <v>0.1383201177612202</v>
+        <v>-0.185438413087686</v>
       </c>
       <c r="D94">
-        <v>-0.06504569154305519</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4160024295837927</v>
+      </c>
+      <c r="E94">
+        <v>0.3092779840416258</v>
+      </c>
+      <c r="F94">
+        <v>0.4387393544246824</v>
+      </c>
+      <c r="G94">
+        <v>0.2071421714419971</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.08612041861725106</v>
+        <v>0.07970046912683396</v>
       </c>
       <c r="C95">
-        <v>0.08653031828131587</v>
+        <v>-0.08789886982112156</v>
       </c>
       <c r="D95">
-        <v>0.06347567145893386</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1381860042228655</v>
+      </c>
+      <c r="E95">
+        <v>-0.1495507969515172</v>
+      </c>
+      <c r="F95">
+        <v>-0.006223842432505985</v>
+      </c>
+      <c r="G95">
+        <v>0.9065063320496223</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.210237251135115</v>
+        <v>0.194990995492609</v>
       </c>
       <c r="C98">
-        <v>0.03660952154555024</v>
+        <v>-0.04585001842147088</v>
       </c>
       <c r="D98">
-        <v>0.02534194314454044</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1389751967965135</v>
+      </c>
+      <c r="E98">
+        <v>-0.1823647144981395</v>
+      </c>
+      <c r="F98">
+        <v>0.04333400802659603</v>
+      </c>
+      <c r="G98">
+        <v>-0.1032234724236323</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01042828437969515</v>
+        <v>0.009090425448750366</v>
       </c>
       <c r="C101">
-        <v>0.02191385777765495</v>
+        <v>-0.02352162172216142</v>
       </c>
       <c r="D101">
-        <v>-0.01203117120873067</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01242888202516161</v>
+      </c>
+      <c r="E101">
+        <v>0.01256366838814827</v>
+      </c>
+      <c r="F101">
+        <v>-0.1010262735262604</v>
+      </c>
+      <c r="G101">
+        <v>0.003052721612556019</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1247505870625854</v>
+        <v>0.1232240619942775</v>
       </c>
       <c r="C102">
-        <v>0.07300629208018976</v>
+        <v>-0.0959838819355123</v>
       </c>
       <c r="D102">
-        <v>-0.03042764994211572</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04628257084345631</v>
+      </c>
+      <c r="E102">
+        <v>0.01297568728008807</v>
+      </c>
+      <c r="F102">
+        <v>-0.02548798902799448</v>
+      </c>
+      <c r="G102">
+        <v>-0.01372627589062689</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-8.099945714775879e-05</v>
+        <v>0.0004178092282986732</v>
       </c>
       <c r="C104">
-        <v>0.003471584856361173</v>
+        <v>-0.001548467918440262</v>
       </c>
       <c r="D104">
-        <v>0.0128680965916401</v>
+        <v>-0.008315458573326615</v>
+      </c>
+      <c r="E104">
+        <v>-0.001898563697715132</v>
+      </c>
+      <c r="F104">
+        <v>0.01069322046747928</v>
+      </c>
+      <c r="G104">
+        <v>0.004750262604186068</v>
       </c>
     </row>
   </sheetData>
